--- a/data/trans_orig/Q64C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,08; 41,14</t>
+          <t>39,05; 41,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,0; 42,65</t>
+          <t>40,06; 42,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 38,39</t>
+          <t>35,62; 38,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,85; 39,58</t>
+          <t>37,77; 39,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,9; 37,3</t>
+          <t>34,9; 37,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,29; 38,46</t>
+          <t>35,43; 38,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 35,39</t>
+          <t>32,53; 35,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 36,97</t>
+          <t>35,07; 36,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,8; 39,33</t>
+          <t>37,72; 39,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,57; 40,55</t>
+          <t>38,49; 40,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,64; 36,63</t>
+          <t>34,59; 36,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,84; 38,05</t>
+          <t>36,84; 38,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,15; 38,99</t>
+          <t>37,12; 38,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,71; 40,5</t>
+          <t>38,69; 40,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,83; 39,91</t>
+          <t>37,8; 39,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,56; 38,82</t>
+          <t>36,64; 38,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,69; 37,04</t>
+          <t>34,76; 37,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 36,5</t>
+          <t>33,84; 36,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,19; 35,97</t>
+          <t>33,28; 36,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,17; 36,24</t>
+          <t>34,1; 36,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,35; 37,86</t>
+          <t>36,33; 37,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,1; 38,75</t>
+          <t>37,02; 38,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,12; 37,79</t>
+          <t>36,12; 37,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,93; 37,43</t>
+          <t>35,8; 37,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,27; 43,64</t>
+          <t>41,35; 43,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,95; 45,28</t>
+          <t>43,03; 45,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,74; 43,23</t>
+          <t>39,92; 43,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 42,13</t>
+          <t>12,54; 42,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,75; 42,48</t>
+          <t>37,72; 42,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,3; 44,67</t>
+          <t>40,19; 44,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,93; 42,03</t>
+          <t>36,93; 42,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,5; 39,94</t>
+          <t>35,69; 40,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,04; 43,27</t>
+          <t>41,04; 43,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,71; 44,85</t>
+          <t>42,56; 44,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,7; 42,63</t>
+          <t>39,68; 42,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 41,19</t>
+          <t>13,65; 41,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,77; 43,27</t>
+          <t>41,75; 43,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,15; 41,96</t>
+          <t>40,23; 42,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 41,47</t>
+          <t>39,38; 41,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,17; 41,79</t>
+          <t>40,17; 41,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,17; 41,37</t>
+          <t>38,19; 41,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,12; 37,13</t>
+          <t>34,17; 36,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,96; 37,86</t>
+          <t>34,94; 37,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,69; 37,25</t>
+          <t>35,63; 37,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,0; 42,37</t>
+          <t>40,93; 42,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 39,62</t>
+          <t>38,01; 39,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 39,6</t>
+          <t>37,85; 39,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,42; 39,59</t>
+          <t>38,39; 39,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,89; 41,1</t>
+          <t>37,93; 41,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,81; 40,84</t>
+          <t>37,83; 41,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,15; 39,97</t>
+          <t>37,26; 39,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,73; 40,17</t>
+          <t>37,85; 40,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,06; 37,33</t>
+          <t>33,17; 37,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,63; 33,21</t>
+          <t>29,42; 33,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,29; 33,67</t>
+          <t>30,04; 33,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,69; 34,09</t>
+          <t>26,23; 34,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,81; 38,43</t>
+          <t>35,86; 38,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,67; 36,28</t>
+          <t>33,77; 36,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 36,35</t>
+          <t>33,9; 36,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,42</t>
+          <t>29,68; 36,43</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,68; 41,61</t>
+          <t>40,7; 41,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,77; 41,83</t>
+          <t>40,71; 41,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,87; 40,08</t>
+          <t>38,84; 40,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,17; 39,86</t>
+          <t>23,28; 39,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,34; 37,94</t>
+          <t>36,34; 37,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,09; 36,67</t>
+          <t>35,07; 36,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,06; 35,62</t>
+          <t>34,14; 35,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,31; 35,82</t>
+          <t>32,5; 35,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,3; 40,12</t>
+          <t>39,33; 40,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,6; 39,51</t>
+          <t>38,67; 39,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,02; 37,98</t>
+          <t>37,03; 37,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,57; 37,88</t>
+          <t>27,3; 37,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q64C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
